--- a/EazyRP_project/src/main/webapp/resources/forms/B.xlsx
+++ b/EazyRP_project/src/main/webapp/resources/forms/B.xlsx
@@ -1,20 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\최종프로젝트\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="0" yWindow="2652" windowWidth="10728" windowHeight="6996"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>소  속</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,26 +31,6 @@
   </si>
   <si>
     <t>성  명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결재</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>직위</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>직위</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -117,7 +93,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -223,7 +199,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -239,29 +215,26 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -323,7 +296,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -358,7 +331,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -535,7 +508,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -543,188 +516,156 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="B6" sqref="B6:F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="15.625" style="1" customWidth="1"/>
+    <col min="2" max="4" width="15.59765625" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1"/>
     <col min="6" max="6" width="25.5" style="1" customWidth="1"/>
-    <col min="7" max="9" width="12.625" style="1" customWidth="1"/>
+    <col min="7" max="9" width="12.59765625" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="2"/>
-      <c r="B1" s="7" t="s">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+    </row>
+    <row r="2" spans="1:9" s="1" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="1" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="11"/>
+    </row>
+    <row r="4" spans="1:9" s="1" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="1:9" s="1" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:9" s="1" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-    </row>
-    <row r="2" spans="1:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-    </row>
-    <row r="3" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="1:9" s="1" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="9" t="s">
+    <row r="8" spans="1:9" s="1" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="11"/>
-    </row>
-    <row r="10" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="11"/>
+    </row>
+    <row r="9" spans="1:9" s="1" customFormat="1" ht="190.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-    </row>
-    <row r="11" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-    </row>
-    <row r="12" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-    </row>
-    <row r="13" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-    </row>
-    <row r="14" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="11"/>
-    </row>
-    <row r="15" spans="1:6" ht="190.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-    </row>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:9" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="12" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="13" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="14" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="15" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="16" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="A14:F14"/>
+  <mergeCells count="8">
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="A8:F8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
